--- a/data/trans_orig/P21D4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D4_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>239737</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>230272</v>
+        <v>229800</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>245468</v>
+        <v>245755</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9451307829541676</v>
+        <v>0.9451307829541677</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9078169947157847</v>
+        <v>0.9059567732788962</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9677250446459112</v>
+        <v>0.9688539190416693</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>571</v>
@@ -762,19 +762,19 @@
         <v>326490</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>316927</v>
+        <v>315715</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>334589</v>
+        <v>334164</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9023923655455542</v>
+        <v>0.9023923655455545</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8759599889174647</v>
+        <v>0.872612127055586</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9247783431153332</v>
+        <v>0.9236011569175177</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>856</v>
@@ -783,19 +783,19 @@
         <v>566227</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>553119</v>
+        <v>553093</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>576498</v>
+        <v>576080</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9200065405927866</v>
+        <v>0.9200065405927865</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8987083516114172</v>
+        <v>0.8986652443750772</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9366946060568204</v>
+        <v>0.9360155120940317</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>12395</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7008</v>
+        <v>7044</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22226</v>
+        <v>23187</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.04886438481715012</v>
+        <v>0.04886438481715013</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02762949931075541</v>
+        <v>0.02777127294563636</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08762350296968648</v>
+        <v>0.09141016958257428</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>44</v>
@@ -833,19 +833,19 @@
         <v>25864</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19143</v>
+        <v>19230</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34102</v>
+        <v>35372</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.0714856705675678</v>
+        <v>0.07148567056756781</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05290956449990635</v>
+        <v>0.05314917578054299</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09425428543673767</v>
+        <v>0.0977647981456464</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>57</v>
@@ -854,19 +854,19 @@
         <v>38259</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>28189</v>
+        <v>29511</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49863</v>
+        <v>49943</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.0621625530737269</v>
+        <v>0.06216255307372689</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04580164755415079</v>
+        <v>0.04794875876689804</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08101724349693488</v>
+        <v>0.08114663467970339</v>
       </c>
     </row>
     <row r="6">
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2982</v>
+        <v>3240</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002083229942543837</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01175429685641811</v>
+        <v>0.01277450803713651</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -904,19 +904,19 @@
         <v>5407</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2346</v>
+        <v>2444</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9900</v>
+        <v>10838</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01494446885717677</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.006484268729474517</v>
+        <v>0.006754379358615258</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02736231560100422</v>
+        <v>0.02995643950219692</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -925,19 +925,19 @@
         <v>5935</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2763</v>
+        <v>2729</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11107</v>
+        <v>11737</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.009643848775700282</v>
+        <v>0.009643848775700284</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.004488750505263279</v>
+        <v>0.004433546845492731</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01804735747830115</v>
+        <v>0.01906997493012613</v>
       </c>
     </row>
     <row r="7">
@@ -957,16 +957,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5427</v>
+        <v>5067</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.003921602286138397</v>
+        <v>0.003921602286138398</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02139701264516332</v>
+        <v>0.01997436225735925</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -975,19 +975,19 @@
         <v>4044</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1728</v>
+        <v>1672</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8028</v>
+        <v>8876</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01117749502970107</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004776831839456784</v>
+        <v>0.004622310277719716</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02218802712982384</v>
+        <v>0.02453312200582226</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -996,19 +996,19 @@
         <v>5039</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2209</v>
+        <v>2149</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9787</v>
+        <v>9783</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.008187057557786216</v>
+        <v>0.008187057557786214</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003589005448899411</v>
+        <v>0.003491266056229692</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01590212105552484</v>
+        <v>0.01589607193191483</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>911528</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>892867</v>
+        <v>892551</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>926128</v>
+        <v>925490</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.9499932606475291</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9305448353679827</v>
+        <v>0.9302155940780974</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9652095560083483</v>
+        <v>0.9645443606451392</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1181</v>
@@ -1121,19 +1121,19 @@
         <v>902458</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>884707</v>
+        <v>884081</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>916276</v>
+        <v>916984</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.9157183565200332</v>
+        <v>0.9157183565200333</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8977062530990009</v>
+        <v>0.8970718869418656</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9297397613166596</v>
+        <v>0.9304583995606215</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1974</v>
@@ -1142,19 +1142,19 @@
         <v>1813986</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1790117</v>
+        <v>1789946</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1835165</v>
+        <v>1834257</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9326266512620902</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.9203547113364662</v>
+        <v>0.9202671069024372</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9435156809489885</v>
+        <v>0.9430488710947479</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>40494</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27755</v>
+        <v>27128</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>59170</v>
+        <v>57171</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04220232129623747</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0289259710250914</v>
+        <v>0.02827256063711184</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06166646107800947</v>
+        <v>0.05958373985744414</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>86</v>
@@ -1192,19 +1192,19 @@
         <v>65815</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>53328</v>
+        <v>52720</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>83438</v>
+        <v>81072</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06678189441719413</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05411160274916865</v>
+        <v>0.05349475289916216</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08466423245339907</v>
+        <v>0.08226286060404983</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>119</v>
@@ -1213,19 +1213,19 @@
         <v>106308</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>87329</v>
+        <v>87518</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>129514</v>
+        <v>129109</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05465644352119362</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04489864813123857</v>
+        <v>0.04499585748629369</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0665872751392351</v>
+        <v>0.06637871225328346</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>6829</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2871</v>
+        <v>2947</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14020</v>
+        <v>14586</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.007117081574265689</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002992341314756604</v>
+        <v>0.003071543585623723</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01461169186528494</v>
+        <v>0.01520117972964678</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -1263,19 +1263,19 @@
         <v>7701</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3791</v>
+        <v>3982</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13652</v>
+        <v>13726</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.007814053691724504</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00384670507624572</v>
+        <v>0.004040464572628156</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0138529134957456</v>
+        <v>0.01392758955974943</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>18</v>
@@ -1284,19 +1284,19 @@
         <v>14530</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8815</v>
+        <v>8914</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22926</v>
+        <v>21962</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.007470227493257171</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004531876482130809</v>
+        <v>0.004582968139855819</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01178671697948457</v>
+        <v>0.01129122512709163</v>
       </c>
     </row>
     <row r="12">
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3674</v>
+        <v>3397</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0006873364819677685</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.003828737580227455</v>
+        <v>0.003539908216136836</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -1334,19 +1334,19 @@
         <v>9545</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5138</v>
+        <v>5305</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16535</v>
+        <v>17408</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.009685695371048167</v>
+        <v>0.009685695371048169</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.005213018750602384</v>
+        <v>0.005382560833152835</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01677842297129826</v>
+        <v>0.01766345913564417</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -1355,19 +1355,19 @@
         <v>10205</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5719</v>
+        <v>5505</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17678</v>
+        <v>17920</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.005246677723459036</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.00294033934541221</v>
+        <v>0.002830235631637425</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.009089061430663124</v>
+        <v>0.009213436051351031</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>312709</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>296256</v>
+        <v>298732</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>324307</v>
+        <v>324290</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9006355609371561</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8532492071501261</v>
+        <v>0.8603817043347614</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9340388813090414</v>
+        <v>0.9339893797763634</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>411</v>
@@ -1480,19 +1480,19 @@
         <v>315487</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>303771</v>
+        <v>304410</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>324423</v>
+        <v>324446</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9218298666405478</v>
+        <v>0.9218298666405477</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8875971775713065</v>
+        <v>0.8894647017364765</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9479391346311404</v>
+        <v>0.9480057953261688</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>702</v>
@@ -1501,19 +1501,19 @@
         <v>628195</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>608454</v>
+        <v>608317</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>643568</v>
+        <v>642516</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9111563342525552</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8825241136694952</v>
+        <v>0.8823249271034305</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9334535174232429</v>
+        <v>0.9319274635926277</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>27853</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17208</v>
+        <v>17578</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>42908</v>
+        <v>42084</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.08021982415233037</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04956072282203364</v>
+        <v>0.05062740537257343</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1235810361621504</v>
+        <v>0.1212062929802436</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>28</v>
@@ -1551,19 +1551,19 @@
         <v>22279</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>14642</v>
+        <v>14675</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>32948</v>
+        <v>32085</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06509633952434057</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04278306976012797</v>
+        <v>0.04287994310224185</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09627145644471022</v>
+        <v>0.09375044709984769</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>49</v>
@@ -1572,19 +1572,19 @@
         <v>50132</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>36660</v>
+        <v>38607</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>66597</v>
+        <v>68256</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.07271258349360281</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05317331646104527</v>
+        <v>0.05599663899580989</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.09659508891616769</v>
+        <v>0.09900161916344739</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>4917</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1425</v>
+        <v>1247</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12971</v>
+        <v>13142</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01416044785720197</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004103764543971926</v>
+        <v>0.003590564620839128</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03735720484335096</v>
+        <v>0.03785076403196533</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1625,16 +1625,16 @@
         <v>708</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15105</v>
+        <v>15936</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01105066701987416</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002067339538071773</v>
+        <v>0.002068869182210901</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04413652958106942</v>
+        <v>0.04656377045062902</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1643,19 +1643,19 @@
         <v>8699</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3619</v>
+        <v>3878</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20058</v>
+        <v>18640</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01261676439297497</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005249502983113865</v>
+        <v>0.005624846575630938</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02909297566559196</v>
+        <v>0.02703592804877401</v>
       </c>
     </row>
     <row r="17">
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6786</v>
+        <v>5973</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.004984167053311537</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01954499624931825</v>
+        <v>0.01720235800282807</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3531</v>
+        <v>3488</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.002023126815237526</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0103181450155327</v>
+        <v>0.01019060116444763</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -1714,19 +1714,19 @@
         <v>2423</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7249</v>
+        <v>7391</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.003514317860867042</v>
+        <v>0.003514317860867041</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.000861753060340819</v>
+        <v>0.0008485696065086535</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01051364084103875</v>
+        <v>0.0107198618802386</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>1463974</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1438323</v>
+        <v>1438360</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1484650</v>
+        <v>1481650</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.938219916005067</v>
+        <v>0.9382199160050669</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9217810988558938</v>
+        <v>0.9218045138696389</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9514706993824382</v>
+        <v>0.9495481970231681</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2163</v>
@@ -1839,19 +1839,19 @@
         <v>1544434</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1523539</v>
+        <v>1521459</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1566216</v>
+        <v>1564257</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.914102668937006</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9017352497299895</v>
+        <v>0.9005043104819898</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9269949940839185</v>
+        <v>0.9258350386163896</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3532</v>
@@ -1860,19 +1860,19 @@
         <v>3008408</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2974795</v>
+        <v>2974242</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>3036757</v>
+        <v>3035741</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.9256819480632831</v>
+        <v>0.9256819480632833</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9153391406081445</v>
+        <v>0.9151690035486887</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9344047917308174</v>
+        <v>0.934092193316433</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>80741</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>61536</v>
+        <v>63299</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>104368</v>
+        <v>103710</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05174482749226073</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03943695553297078</v>
+        <v>0.04056682469436229</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06688660829508959</v>
+        <v>0.06646496482581953</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>158</v>
@@ -1910,19 +1910,19 @@
         <v>113957</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>96156</v>
+        <v>95819</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>133983</v>
+        <v>132615</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.06744773813037831</v>
+        <v>0.0674477381303783</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05691166732835851</v>
+        <v>0.05671229040571661</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07930014378678246</v>
+        <v>0.07849068625146678</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>225</v>
@@ -1931,19 +1931,19 @@
         <v>194698</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>169157</v>
+        <v>170130</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>225380</v>
+        <v>225827</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05990838735536599</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05204946291709569</v>
+        <v>0.05234861290849513</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06934899444216602</v>
+        <v>0.06948663340532103</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>12274</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6800</v>
+        <v>6414</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>22235</v>
+        <v>21834</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.007866041057441766</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.004358214730554616</v>
+        <v>0.004110262913386799</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01424963768699318</v>
+        <v>0.01399285071425845</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>22</v>
@@ -1981,19 +1981,19 @@
         <v>16890</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>10536</v>
+        <v>10887</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>26455</v>
+        <v>27831</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.009996579857203395</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.006236128774778654</v>
+        <v>0.006443453748893675</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01565807841656462</v>
+        <v>0.01647211494739491</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>34</v>
@@ -2002,19 +2002,19 @@
         <v>29164</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>20541</v>
+        <v>19561</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>42144</v>
+        <v>41784</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.008973656163542088</v>
+        <v>0.00897365616354209</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.006320530728972235</v>
+        <v>0.006018936154285244</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01296776027451617</v>
+        <v>0.0128569460948813</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>3385</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8307</v>
+        <v>8435</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002169215445230591</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0007322933660088856</v>
+        <v>0.0007361050187772499</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.005323764580388181</v>
+        <v>0.005405854438625879</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -2052,19 +2052,19 @@
         <v>14282</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8900</v>
+        <v>8972</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22001</v>
+        <v>21802</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008453013075412181</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005267545542718843</v>
+        <v>0.00531052534007493</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01302157385418687</v>
+        <v>0.01290417159325464</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>25</v>
@@ -2073,19 +2073,19 @@
         <v>17667</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11381</v>
+        <v>11261</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26210</v>
+        <v>26924</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.005436008417808818</v>
+        <v>0.005436008417808821</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003501878518161549</v>
+        <v>0.003464933680664708</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.008064807111968579</v>
+        <v>0.008284409707921367</v>
       </c>
     </row>
     <row r="23">
